--- a/medicine/Sexualité et sexologie/Festivulve/Festivulve.xlsx
+++ b/medicine/Sexualité et sexologie/Festivulve/Festivulve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festivulve est un festival en hommage à la vulve, qui a lieu à Montréal, au Québec.
 </t>
@@ -511,10 +523,12 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier festivulve a eu lieu en 2018[1],[2],[3].
-L'objectif visé par ce festival est de mettre en valeur la beauté et la diversité naturelle des vulves[4],[5]. Le site web du festival mentionne : « la révolution vulvienne est arrivée et elle est clitoridienne ! »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier festivulve a eu lieu en 2018.
+L'objectif visé par ce festival est de mettre en valeur la beauté et la diversité naturelle des vulves,. Le site web du festival mentionne : « la révolution vulvienne est arrivée et elle est clitoridienne ! ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Thématiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fondatrice de ce festival, Mel Goyer, affirme que sa démarche vise à briser les tabous et les méconnaissances entourant la vulve[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondatrice de ce festival, Mel Goyer, affirme que sa démarche vise à briser les tabous et les méconnaissances entourant la vulve.
 </t>
         </is>
       </c>
